--- a/YeaMin/WebContent/docs/etc/project_schedule.xlsx
+++ b/YeaMin/WebContent/docs/etc/project_schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="36" windowWidth="23256" windowHeight="12576"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>24일</t>
   </si>
@@ -311,6 +311,58 @@
   </si>
   <si>
     <t>11-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 입력 체크 사항 - 아이디, 비밀번호, 이름, 이메일, 전화번호, 생년월일
+유효성 체크 사항 - 이메일, 전화번호, 생년월일
+생년월일 기본값 없앨지 여부 판단
+이메일 Unique 제약 조건 제거
+이메일를 통한 사용자 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 입력 체크 사항 - 아이디, 비밀번호
+모달 크기 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 입력 체크 사항 - 비밀번호, 이름, 이메일, 전화번호, 생년월일
+유효성 체크 사항 - 이메일, 전화번호, 생년월일
+아이디는 Label로 변경
+비밀번호 확인 제거
+이메일 변경 시에 이메일를 통한 사용자 인증
+취소 버튼 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 입력 체크 사항 - 가게 이름, 가게 전화번호, 가게 주소, 가게 설명, 주중 영업시간, 주말 영업시간
+유효성 체크 사항 - 가게 전화 번호
+가게 이름 varchar 길이 조정
+가게 주소 - 다음 우편 서비스 연동
+가게 주소 - readonly or disable 처리
+가게 상세 주소 추가할 지 여부 판단
+가게 등록 시에 selectStoreImg.json 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 입력 체크 사항 - 카테고리 이름, 카테고리 순서
+유효성 체크 사항 - 카테고리 순서
+검색 조건인 공개 설정, 정렬 제거
+예약 관리 - 예약 시관 관리 CRUD 로직과 동일하게 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 입력 체크 사항 - 상품 이름, 상품 가격, 상품 소개, 상품 순서, 상품 이미지
+유효성 체크 사항 - 상품 가격, 상품 순서
+상품 순서 AJAX로 중복 체크
+검색 결과에 "카테고리"를 "카테고리 이름"으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 입력 체크 사항 - 예약 수용 시간, 예약 수용 인원 수
+유효성 체크 사항 - 예약 수용 시간, 예약 수용 인원 수
+"예약 시간 관리" 메뉴명을 "예약 수용력 관리"로 변경 ( 메뉴 설명, 모달 제목 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -486,6 +538,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,41 +586,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,60 +893,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG23"/>
+  <dimension ref="B2:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="8.59765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="33" width="4" customWidth="1"/>
+    <col min="34" max="34" width="81.59765625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33">
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14" t="s">
+    <row r="2" spans="2:34">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-    </row>
-    <row r="3" spans="2:33">
-      <c r="B3" s="19" t="s">
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+    </row>
+    <row r="3" spans="2:34">
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -985,22 +1047,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:33">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:34" ht="87">
+      <c r="B4" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="17"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="4"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -1024,15 +1086,18 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="2:33">
-      <c r="B5" s="19" t="s">
+      <c r="AH4" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" ht="34.799999999999997">
+      <c r="B5" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="8"/>
@@ -1041,9 +1106,9 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -1064,15 +1129,18 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="2:33">
-      <c r="B6" s="19" t="s">
+      <c r="AH5" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" ht="104.4">
+      <c r="B6" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="10"/>
@@ -1084,12 +1152,12 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="27"/>
+      <c r="N6" s="23"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
       <c r="T6" s="10"/>
       <c r="U6" s="4"/>
       <c r="V6" s="5"/>
@@ -1104,15 +1172,18 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="2:33">
-      <c r="B7" s="19" t="s">
+      <c r="AH6" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" ht="121.8">
+      <c r="B7" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="10"/>
@@ -1122,12 +1193,12 @@
       <c r="I7" s="5"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="17"/>
+      <c r="Q7" s="13"/>
       <c r="R7" s="10"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -1144,20 +1215,23 @@
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="2:33">
-      <c r="B8" s="19" t="s">
+      <c r="AH7" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" ht="69.599999999999994">
+      <c r="B8" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="10"/>
@@ -1184,15 +1258,18 @@
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
-    </row>
-    <row r="9" spans="2:33">
-      <c r="B9" s="19" t="s">
+      <c r="AH8" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" ht="69.599999999999994">
+      <c r="B9" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="20" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="10"/>
@@ -1200,8 +1277,8 @@
       <c r="G9" s="10"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1224,15 +1301,18 @@
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="2:33">
-      <c r="B10" s="19" t="s">
+      <c r="AH9" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34">
+      <c r="B10" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="4"/>
@@ -1250,8 +1330,8 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="12"/>
@@ -1265,14 +1345,14 @@
       <c r="AF10" s="12"/>
       <c r="AG10" s="12"/>
     </row>
-    <row r="11" spans="2:33">
-      <c r="B11" s="19" t="s">
+    <row r="11" spans="2:34">
+      <c r="B11" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="4"/>
@@ -1282,14 +1362,14 @@
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="4"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="5"/>
@@ -1305,19 +1385,19 @@
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
     </row>
-    <row r="12" spans="2:33">
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="2:34" ht="52.2">
+      <c r="B12" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="8"/>
@@ -1344,15 +1424,18 @@
       <c r="AE12" s="10"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="10"/>
-    </row>
-    <row r="13" spans="2:33">
-      <c r="B13" s="19" t="s">
+      <c r="AH12" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34">
+      <c r="B13" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="4"/>
@@ -1363,11 +1446,11 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="22"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="10"/>
       <c r="S13" s="8"/>
       <c r="T13" s="10"/>
@@ -1385,14 +1468,14 @@
       <c r="AF13" s="4"/>
       <c r="AG13" s="10"/>
     </row>
-    <row r="14" spans="2:33">
-      <c r="B14" s="19" t="s">
+    <row r="14" spans="2:34">
+      <c r="B14" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="21" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="10"/>
@@ -1416,8 +1499,8 @@
       <c r="W14" s="5"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
@@ -1425,14 +1508,14 @@
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
     </row>
-    <row r="15" spans="2:33">
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="2:34">
+      <c r="B15" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="21" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="10"/>
@@ -1458,21 +1541,21 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
-      <c r="AB15" s="17"/>
+      <c r="AB15" s="13"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
     </row>
-    <row r="16" spans="2:33">
-      <c r="B16" s="19" t="s">
+    <row r="16" spans="2:34">
+      <c r="B16" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="21" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="10"/>
@@ -1494,8 +1577,8 @@
       <c r="U16" s="9"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="8"/>
@@ -1506,13 +1589,13 @@
       <c r="AG16" s="9"/>
     </row>
     <row r="17" spans="2:33">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E17" s="4"/>
@@ -1536,9 +1619,9 @@
       <c r="W17" s="5"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="4"/>
@@ -1546,13 +1629,13 @@
       <c r="AG17" s="4"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="4"/>
@@ -1564,14 +1647,14 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="28"/>
+      <c r="N18" s="24"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="10"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="10"/>
@@ -1586,13 +1669,13 @@
       <c r="AG18" s="10"/>
     </row>
     <row r="19" spans="2:33">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="10"/>
@@ -1600,9 +1683,9 @@
       <c r="G19" s="10"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="10"/>
       <c r="N19" s="4"/>
       <c r="O19" s="5"/>
@@ -1626,13 +1709,13 @@
       <c r="AG19" s="9"/>
     </row>
     <row r="20" spans="2:33">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="4"/>
@@ -1654,8 +1737,8 @@
       <c r="U20" s="10"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
@@ -1666,13 +1749,13 @@
       <c r="AG20" s="10"/>
     </row>
     <row r="21" spans="2:33">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="4"/>
@@ -1690,13 +1773,13 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="5"/>
@@ -1706,13 +1789,13 @@
       <c r="AG21" s="8"/>
     </row>
     <row r="22" spans="2:33">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="19" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="10"/>
@@ -1737,8 +1820,8 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="4"/>
@@ -1746,7 +1829,7 @@
       <c r="AG22" s="4"/>
     </row>
     <row r="23" spans="2:33">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1781,9 +1864,9 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:AG23">

--- a/YeaMin/WebContent/docs/etc/project_schedule.xlsx
+++ b/YeaMin/WebContent/docs/etc/project_schedule.xlsx
@@ -336,33 +336,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필수 입력 체크 사항 - 가게 이름, 가게 전화번호, 가게 주소, 가게 설명, 주중 영업시간, 주말 영업시간
+    <t>필수 입력 체크 사항 - 카테고리 이름, 카테고리 순서
+유효성 체크 사항 - 카테고리 순서
+검색 조건인 공개 설정, 정렬 제거
+예약 관리 - 예약 시관 관리 CRUD 로직과 동일하게 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 입력 체크 사항 - 상품 이름, 상품 가격, 상품 소개, 상품 순서, 상품 이미지
+유효성 체크 사항 - 상품 가격, 상품 순서
+상품 순서 AJAX로 중복 체크
+검색 결과에 "카테고리"를 "카테고리 이름"으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 입력 체크 사항 - 예약 수용 시간, 예약 수용 인원 수
+유효성 체크 사항 - 예약 수용 시간, 예약 수용 인원 수
+"예약 시간 관리" 메뉴명을 "예약 수용력 관리"로 변경 ( 메뉴 설명, 모달 제목 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">필수 입력 체크 사항 - 가게 이름, 가게 전화번호, 가게 주소, 가게 설명, 주중 영업시간, 주말 영업시간
 유효성 체크 사항 - 가게 전화 번호
-가게 이름 varchar 길이 조정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가게 이름 varchar 길이 조정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 가게 주소 - 다음 우편 서비스 연동
 가게 주소 - readonly or disable 처리
 가게 상세 주소 추가할 지 여부 판단
 가게 등록 시에 selectStoreImg.json 버그 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 입력 체크 사항 - 카테고리 이름, 카테고리 순서
-유효성 체크 사항 - 카테고리 순서
-검색 조건인 공개 설정, 정렬 제거
-예약 관리 - 예약 시관 관리 CRUD 로직과 동일하게 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 입력 체크 사항 - 상품 이름, 상품 가격, 상품 소개, 상품 순서, 상품 이미지
-유효성 체크 사항 - 상품 가격, 상품 순서
-상품 순서 AJAX로 중복 체크
-검색 결과에 "카테고리"를 "카테고리 이름"으로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 입력 체크 사항 - 예약 수용 시간, 예약 수용 인원 수
-유효성 체크 사항 - 예약 수용 시간, 예약 수용 인원 수
-"예약 시간 관리" 메뉴명을 "예약 수용력 관리"로 변경 ( 메뉴 설명, 모달 제목 )</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +414,14 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -574,6 +606,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,12 +623,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -899,7 +931,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -908,46 +940,46 @@
     <col min="3" max="3" width="32.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="33" width="4" customWidth="1"/>
-    <col min="34" max="34" width="81.59765625" style="29" customWidth="1"/>
+    <col min="34" max="34" width="81.59765625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:34">
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="26" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="28" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
     </row>
     <row r="3" spans="2:34">
       <c r="B3" s="15" t="s">
@@ -1086,7 +1118,7 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
-      <c r="AH4" s="30" t="s">
+      <c r="AH4" s="26" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1129,7 +1161,7 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
-      <c r="AH5" s="30" t="s">
+      <c r="AH5" s="26" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1172,7 +1204,7 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
-      <c r="AH6" s="30" t="s">
+      <c r="AH6" s="26" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1215,8 +1247,8 @@
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
-      <c r="AH7" s="30" t="s">
-        <v>85</v>
+      <c r="AH7" s="26" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:34" ht="69.599999999999994">
@@ -1258,8 +1290,8 @@
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
-      <c r="AH8" s="30" t="s">
-        <v>86</v>
+      <c r="AH8" s="26" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:34" ht="69.599999999999994">
@@ -1301,8 +1333,8 @@
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
-      <c r="AH9" s="30" t="s">
-        <v>87</v>
+      <c r="AH9" s="26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:34">
@@ -1424,8 +1456,8 @@
       <c r="AE12" s="10"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="10"/>
-      <c r="AH12" s="30" t="s">
-        <v>88</v>
+      <c r="AH12" s="26" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:34">

--- a/YeaMin/WebContent/docs/etc/project_schedule.xlsx
+++ b/YeaMin/WebContent/docs/etc/project_schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>24일</t>
   </si>
@@ -162,9 +162,6 @@
     <t>예약 관리 - 통계</t>
   </si>
   <si>
-    <t>예약 관리 - 예약 시간 관리</t>
-  </si>
-  <si>
     <t>회원 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인 화면 - 가게 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인 화면 - 통계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,63 +307,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필수 입력 체크 사항 - 아이디, 비밀번호, 이름, 이메일, 전화번호, 생년월일
-유효성 체크 사항 - 이메일, 전화번호, 생년월일
+    <t>모달 크기 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 체크 사항 - 이메일, 전화번호, 생년월일
 생년월일 기본값 없앨지 여부 판단
-이메일 Unique 제약 조건 제거
-이메일를 통한 사용자 인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 입력 체크 사항 - 아이디, 비밀번호
-모달 크기 조절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 입력 체크 사항 - 비밀번호, 이름, 이메일, 전화번호, 생년월일
-유효성 체크 사항 - 이메일, 전화번호, 생년월일
-아이디는 Label로 변경
-비밀번호 확인 제거
-이메일 변경 시에 이메일를 통한 사용자 인증
-취소 버튼 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 입력 체크 사항 - 카테고리 이름, 카테고리 순서
-유효성 체크 사항 - 카테고리 순서
-검색 조건인 공개 설정, 정렬 제거
-예약 관리 - 예약 시관 관리 CRUD 로직과 동일하게 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 입력 체크 사항 - 상품 이름, 상품 가격, 상품 소개, 상품 순서, 상품 이미지
-유효성 체크 사항 - 상품 가격, 상품 순서
-상품 순서 AJAX로 중복 체크
-검색 결과에 "카테고리"를 "카테고리 이름"으로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 입력 체크 사항 - 예약 수용 시간, 예약 수용 인원 수
-유효성 체크 사항 - 예약 수용 시간, 예약 수용 인원 수
-"예약 시간 관리" 메뉴명을 "예약 수용력 관리"로 변경 ( 메뉴 설명, 모달 제목 )</t>
+이메일를 통한 사용자 인증
+아이디 중복 되었을 경우, 회원가입 버튼 비활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 체크 사항 - 이메일, 전화번호, 생년월일
+이메일 변경 시에 이메일를 통한 사용자 인증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">필수 입력 체크 사항 - 가게 이름, 가게 전화번호, 가게 주소, 가게 설명, 주중 영업시간, 주말 영업시간
-유효성 체크 사항 - 가게 전화 번호
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>가게 이름 varchar 길이 조정</t>
+      <t>유효성 체크 사항 - 가게 전화 번호</t>
     </r>
     <r>
       <rPr>
@@ -382,11 +336,42 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-가게 주소 - 다음 우편 서비스 연동
-가게 주소 - readonly or disable 처리
-가게 상세 주소 추가할 지 여부 판단
-가게 등록 시에 selectStoreImg.json 버그 수정</t>
+가게 상세 주소 추가할 지 여부 판단</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 체크 사항 - 카테고리 순서
+예약 관리 - 예약 시관 관리 CRUD 로직과 동일하게 변경
+상품 카테고리 순서 AJAX로 중복 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 체크 사항 - 상품 가격, 상품 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 - 가게 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게 정보 관리 - 라인 이쁘게 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이쁘게 ~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 체크 사항 - 예약 수용 시간, 예약 수용 인원 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 관리 - 예약 시간 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 "예약 시간"의 전체 수용 인원과 예약 가능한 인원 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,14 +399,6 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -928,10 +905,10 @@
   <dimension ref="B2:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="W7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
+      <selection pane="bottomRight" activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -992,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>18</v>
@@ -1079,15 +1056,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="87">
+    <row r="4" spans="2:34" ht="69.599999999999994">
       <c r="B4" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -1119,18 +1096,18 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="2:34" ht="34.799999999999997">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34">
       <c r="B5" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1162,18 +1139,18 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:34" ht="104.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" ht="34.799999999999997">
       <c r="B6" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="8"/>
@@ -1205,18 +1182,18 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="2:34" ht="121.8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" ht="34.799999999999997">
       <c r="B7" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1248,18 +1225,18 @@
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="2:34" ht="69.599999999999994">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" ht="52.2">
       <c r="B8" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -1291,18 +1268,18 @@
       <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="2:34" ht="69.599999999999994">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34">
       <c r="B9" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1334,18 +1311,18 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:34">
       <c r="B10" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1376,16 +1353,19 @@
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
       <c r="AG10" s="12"/>
+      <c r="AH10" s="25" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="2:34">
       <c r="B11" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1416,16 +1396,19 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="2:34" ht="52.2">
+      <c r="AH11" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34">
       <c r="B12" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -1457,18 +1440,18 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="10"/>
       <c r="AH12" s="26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1499,16 +1482,19 @@
       <c r="AE13" s="10"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="10"/>
+      <c r="AH13" s="25" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="2:34">
       <c r="B14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1542,13 +1528,13 @@
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -1582,13 +1568,13 @@
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -1620,15 +1606,15 @@
       <c r="AF16" s="4"/>
       <c r="AG16" s="9"/>
     </row>
-    <row r="17" spans="2:33">
+    <row r="17" spans="2:34">
       <c r="B17" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1660,15 +1646,15 @@
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
     </row>
-    <row r="18" spans="2:33">
+    <row r="18" spans="2:34">
       <c r="B18" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1700,15 +1686,15 @@
       <c r="AF18" s="4"/>
       <c r="AG18" s="10"/>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" spans="2:34">
       <c r="B19" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1739,16 +1725,19 @@
       <c r="AE19" s="9"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="9"/>
-    </row>
-    <row r="20" spans="2:33">
+      <c r="AH19" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34">
       <c r="B20" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1780,15 +1769,15 @@
       <c r="AF20" s="4"/>
       <c r="AG20" s="10"/>
     </row>
-    <row r="21" spans="2:33">
+    <row r="21" spans="2:34">
       <c r="B21" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1820,15 +1809,15 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:33">
+    <row r="22" spans="2:34">
       <c r="B22" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -1860,15 +1849,15 @@
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
     </row>
-    <row r="23" spans="2:33">
+    <row r="23" spans="2:34">
       <c r="B23" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>

--- a/YeaMin/WebContent/docs/etc/project_schedule.xlsx
+++ b/YeaMin/WebContent/docs/etc/project_schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="36" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="3675" yWindow="3465" windowWidth="22470" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$AG$23</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -341,12 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유효성 체크 사항 - 카테고리 순서
-예약 관리 - 예약 시관 관리 CRUD 로직과 동일하게 변경
-상품 카테고리 순서 AJAX로 중복 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유효성 체크 사항 - 상품 가격, 상품 순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,6 +367,10 @@
   </si>
   <si>
     <t>선택된 "예약 시간"의 전체 수용 인원과 예약 가능한 인원 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 체크 사항 - 카테고리 순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,19 +904,19 @@
   <dimension ref="B2:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="W7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="Y7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH14" sqref="AH14"/>
+      <selection pane="bottomRight" activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.59765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="33" width="4" customWidth="1"/>
-    <col min="34" max="34" width="81.59765625" style="25" customWidth="1"/>
+    <col min="34" max="34" width="81.625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:34">
@@ -1056,7 +1055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="69.599999999999994">
+    <row r="4" spans="2:34" ht="66">
       <c r="B4" s="15" t="s">
         <v>61</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:34" ht="34.799999999999997">
+    <row r="6" spans="2:34" ht="33">
       <c r="B6" s="15" t="s">
         <v>63</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="2:34" ht="34.799999999999997">
+    <row r="7" spans="2:34" ht="33">
       <c r="B7" s="15" t="s">
         <v>64</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:34" ht="52.2">
+    <row r="8" spans="2:34">
       <c r="B8" s="15" t="s">
         <v>65</v>
       </c>
@@ -1268,7 +1267,7 @@
       <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="26" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:34">
@@ -1311,7 +1310,7 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:34">
@@ -1319,7 +1318,7 @@
         <v>67</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>57</v>
@@ -1354,7 +1353,7 @@
       <c r="AF10" s="12"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:34">
@@ -1397,7 +1396,7 @@
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:34">
@@ -1405,7 +1404,7 @@
         <v>69</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>52</v>
@@ -1440,7 +1439,7 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="10"/>
       <c r="AH12" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:34">
@@ -1483,7 +1482,7 @@
       <c r="AF13" s="4"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:34">
@@ -1726,7 +1725,7 @@
       <c r="AF19" s="4"/>
       <c r="AG19" s="9"/>
       <c r="AH19" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:34">
@@ -1912,7 +1911,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1925,7 +1924,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/YeaMin/WebContent/docs/etc/project_schedule.xlsx
+++ b/YeaMin/WebContent/docs/etc/project_schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3465" windowWidth="22470" windowHeight="8550"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="20565" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>24일</t>
   </si>
@@ -904,7 +904,7 @@
   <dimension ref="B2:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="Y7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AC7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="AH17" sqref="AH17"/>
@@ -1395,9 +1395,6 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-      <c r="AH11" s="25" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="12" spans="2:34">
       <c r="B12" s="15" t="s">

--- a/YeaMin/WebContent/docs/etc/project_schedule.xlsx
+++ b/YeaMin/WebContent/docs/etc/project_schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>24일</t>
   </si>
@@ -313,64 +313,41 @@
   </si>
   <si>
     <t>유효성 체크 사항 - 이메일, 전화번호, 생년월일
-생년월일 기본값 없앨지 여부 판단
+이메일 변경 시에 이메일를 통한 사용자 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 - 가게 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이쁘게 ~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 체크 사항 - 예약 수용 시간, 예약 수용 인원 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 관리 - 예약 시간 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 "예약 시간"의 전체 수용 인원과 예약 가능한 인원 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 체크 사항 - 가게 전화 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 체크 사항 - 이메일, 전화번호, 생년월일
 이메일를 통한 사용자 인증
 아이디 중복 되었을 경우, 회원가입 버튼 비활성화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유효성 체크 사항 - 이메일, 전화번호, 생년월일
-이메일 변경 시에 이메일를 통한 사용자 인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>유효성 체크 사항 - 가게 전화 번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-가게 상세 주소 추가할 지 여부 판단</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효성 체크 사항 - 상품 가격, 상품 순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면 - 가게 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가게 정보 관리 - 라인 이쁘게 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이쁘게 ~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효성 체크 사항 - 예약 수용 시간, 예약 수용 인원 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 관리 - 예약 시간 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택된 "예약 시간"의 전체 수용 인원과 예약 가능한 인원 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효성 체크 사항 - 카테고리 순서</t>
+    <t>유효성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -904,10 +881,10 @@
   <dimension ref="B2:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AC7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH17" sqref="AH17"/>
+      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1055,7 +1032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="66">
+    <row r="4" spans="2:34" ht="49.5">
       <c r="B4" s="15" t="s">
         <v>61</v>
       </c>
@@ -1095,7 +1072,7 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="26" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:34">
@@ -1181,10 +1158,10 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:34" ht="33">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34">
       <c r="B7" s="15" t="s">
         <v>64</v>
       </c>
@@ -1224,7 +1201,7 @@
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:34">
@@ -1266,9 +1243,7 @@
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
-      <c r="AH8" s="26" t="s">
-        <v>91</v>
-      </c>
+      <c r="AH8" s="26"/>
     </row>
     <row r="9" spans="2:34">
       <c r="B9" s="15" t="s">
@@ -1310,7 +1285,7 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="26" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:34">
@@ -1318,7 +1293,7 @@
         <v>67</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>57</v>
@@ -1352,9 +1327,6 @@
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
       <c r="AG10" s="12"/>
-      <c r="AH10" s="25" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="11" spans="2:34">
       <c r="B11" s="15" t="s">
@@ -1401,7 +1373,7 @@
         <v>69</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>52</v>
@@ -1436,7 +1408,7 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="10"/>
       <c r="AH12" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:34">
@@ -1479,7 +1451,7 @@
       <c r="AF13" s="4"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:34">
@@ -1722,7 +1694,7 @@
       <c r="AF19" s="4"/>
       <c r="AG19" s="9"/>
       <c r="AH19" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:34">

--- a/YeaMin/WebContent/docs/etc/project_schedule.xlsx
+++ b/YeaMin/WebContent/docs/etc/project_schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>24일</t>
   </si>
@@ -334,20 +334,12 @@
   </si>
   <si>
     <t>선택된 "예약 시간"의 전체 수용 인원과 예약 가능한 인원 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효성 체크 사항 - 가게 전화 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유효성 체크 사항 - 이메일, 전화번호, 생년월일
 이메일를 통한 사용자 인증
 아이디 중복 되었을 경우, 회원가입 버튼 비활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,10 +873,10 @@
   <dimension ref="B2:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
+      <selection pane="bottomRight" activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1072,7 +1064,7 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:34">
@@ -1200,9 +1192,7 @@
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
-      <c r="AH7" s="26" t="s">
-        <v>87</v>
-      </c>
+      <c r="AH7" s="26"/>
     </row>
     <row r="8" spans="2:34">
       <c r="B8" s="15" t="s">
@@ -1284,9 +1274,7 @@
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
-      <c r="AH9" s="26" t="s">
-        <v>89</v>
-      </c>
+      <c r="AH9" s="26"/>
     </row>
     <row r="10" spans="2:34">
       <c r="B10" s="15" t="s">

--- a/YeaMin/WebContent/docs/etc/project_schedule.xlsx
+++ b/YeaMin/WebContent/docs/etc/project_schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
   <si>
     <t>24일</t>
   </si>
@@ -325,10 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유효성 체크 사항 - 예약 수용 시간, 예약 수용 인원 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예약 관리 - 예약 시간 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,8 +334,7 @@
   </si>
   <si>
     <t>유효성 체크 사항 - 이메일, 전화번호, 생년월일
-이메일를 통한 사용자 인증
-아이디 중복 되었을 경우, 회원가입 버튼 비활성화</t>
+이메일를 통한 사용자 인증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,10 +868,10 @@
   <dimension ref="B2:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH4" sqref="AH4"/>
+      <selection pane="bottomRight" activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1024,7 +1019,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="49.5">
+    <row r="4" spans="2:34" ht="33">
       <c r="B4" s="15" t="s">
         <v>61</v>
       </c>
@@ -1064,7 +1059,7 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:34">
@@ -1361,7 +1356,7 @@
         <v>69</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>52</v>
@@ -1395,9 +1390,7 @@
       <c r="AE12" s="10"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="10"/>
-      <c r="AH12" s="26" t="s">
-        <v>84</v>
-      </c>
+      <c r="AH12" s="26"/>
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="15" t="s">
@@ -1439,7 +1432,7 @@
       <c r="AF13" s="4"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:34">

--- a/YeaMin/WebContent/docs/etc/project_schedule.xlsx
+++ b/YeaMin/WebContent/docs/etc/project_schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>24일</t>
   </si>
@@ -321,20 +321,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이쁘게 ~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예약 관리 - 예약 시간 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택된 "예약 시간"의 전체 수용 인원과 예약 가능한 인원 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유효성 체크 사항 - 이메일, 전화번호, 생년월일
 이메일를 통한 사용자 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별 리뷰 통계 , TOP N 통계 있음. 
+연령별 예약 수 통계 :20대, 30대, 40대, 50대, 기타에 대한 예약수를 표시한다.
+시간별 매출액 : 24시간을 2시간 단위로 매출액을 표시한다.
+시간별 예약 수 : 24시간을 2시간 단위로 예약수를 표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +878,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH11" sqref="AH11"/>
+      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1059,7 +1066,7 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:34">
@@ -1356,7 +1363,7 @@
         <v>69</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>52</v>
@@ -1431,9 +1438,6 @@
       <c r="AE13" s="10"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="10"/>
-      <c r="AH13" s="25" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="14" spans="2:34">
       <c r="B14" s="15" t="s">
@@ -1474,6 +1478,9 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
+      <c r="AH14" s="25" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="15" t="s">
@@ -1514,8 +1521,11 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="2:34">
+      <c r="AH15" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" ht="66">
       <c r="B16" s="15" t="s">
         <v>73</v>
       </c>
@@ -1554,6 +1564,9 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="9"/>
+      <c r="AH16" s="26" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="17" spans="2:34">
       <c r="B17" s="15" t="s">
@@ -1674,9 +1687,6 @@
       <c r="AE19" s="9"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="9"/>
-      <c r="AH19" s="25" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="20" spans="2:34">
       <c r="B20" s="15" t="s">

--- a/YeaMin/WebContent/docs/etc/project_schedule.xlsx
+++ b/YeaMin/WebContent/docs/etc/project_schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="20565" windowHeight="8550"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="20565" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
   <si>
     <t>24일</t>
   </si>
@@ -308,7 +308,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모달 크기 조절</t>
+    <t>메인 화면 - 가게 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 관리 - 예약 시간 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 체크 사항 - 이메일, 전화번호, 생년월일
+이메일를 통한 사용자 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -317,31 +334,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인 화면 - 가게 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 관리 - 예약 시간 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효성 체크 사항 - 이메일, 전화번호, 생년월일
-이메일를 통한 사용자 인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>성별 리뷰 통계 , TOP N 통계 있음. 
-연령별 예약 수 통계 :20대, 30대, 40대, 50대, 기타에 대한 예약수를 표시한다.
+연령별 예약 수 통계  있음.
 시간별 매출액 : 24시간을 2시간 단위로 매출액을 표시한다.
 시간별 예약 수 : 24시간을 2시간 단위로 예약수를 표시한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,10 +871,10 @@
   <dimension ref="B2:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AC10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
+      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1066,7 +1062,7 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:34">
@@ -1108,9 +1104,7 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
-      <c r="AH5" s="26" t="s">
-        <v>80</v>
-      </c>
+      <c r="AH5" s="26"/>
     </row>
     <row r="6" spans="2:34" ht="33">
       <c r="B6" s="15" t="s">
@@ -1152,7 +1146,7 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:34">
@@ -1283,7 +1277,7 @@
         <v>67</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>57</v>
@@ -1363,7 +1357,7 @@
         <v>69</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>52</v>
@@ -1479,7 +1473,7 @@
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:34">
@@ -1522,7 +1516,7 @@
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:34" ht="66">
@@ -1565,7 +1559,7 @@
       <c r="AF16" s="4"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:34">

--- a/YeaMin/WebContent/docs/etc/project_schedule.xlsx
+++ b/YeaMin/WebContent/docs/etc/project_schedule.xlsx
@@ -334,10 +334,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성별 리뷰 통계 , TOP N 통계 있음. 
-연령별 예약 수 통계  있음.
-시간별 매출액 : 24시간을 2시간 단위로 매출액을 표시한다.
-시간별 예약 수 : 24시간을 2시간 단위로 예약수를 표시한다.</t>
+    <t>시간별 매출액 , 시간별 예약 수 기간 마지막하루 빠지는거 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,10 +868,10 @@
   <dimension ref="B2:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AC10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
+      <selection pane="bottomRight" activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1519,7 +1516,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="2:34" ht="66">
+    <row r="16" spans="2:34">
       <c r="B16" s="15" t="s">
         <v>73</v>
       </c>

--- a/YeaMin/WebContent/docs/etc/project_schedule.xlsx
+++ b/YeaMin/WebContent/docs/etc/project_schedule.xlsx
@@ -329,12 +329,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>시간별 매출액 , 시간별 예약 수 기간 마지막하루 빠지는거 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>유효성 체크 사항 - 이메일, 전화번호, 생년월일
 이메일 변경 시에 이메일를 통한 사용자 인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간별 매출액 , 시간별 예약 수 기간 마지막하루 빠지는거 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +871,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH11" sqref="AH11"/>
+      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1143,7 +1143,7 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:34">
@@ -1556,7 +1556,7 @@
       <c r="AF16" s="4"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:34">
